--- a/src/test/java/ulities/data.xlsx
+++ b/src/test/java/ulities/data.xlsx
@@ -3,15 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{88A8A7BE-81C4-47BD-9A18-9AF5D90C2164}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asma\Desktop\Asma_Task\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906F5764-DE1D-4A2B-8205-F0C34979162D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1770" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -361,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -373,7 +377,7 @@
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -381,7 +385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -389,7 +393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -397,7 +401,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{F90AFF7F-95EA-49F7-B4F0-15D2F48A6F03}"/>
